--- a/acctneweditpkg.xlsx
+++ b/acctneweditpkg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -484,7 +484,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -620,6 +620,9 @@
       <c r="H6" t="s">
         <v>32</v>
       </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="E7" t="s">
